--- a/tables/cohen_d_adj.xlsx
+++ b/tables/cohen_d_adj.xlsx
@@ -419,19 +419,19 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.198</v>
+        <v>0.268</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/tables/cohen_d_adj.xlsx
+++ b/tables/cohen_d_adj.xlsx
@@ -419,19 +419,19 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.268</v>
+        <v>0.011</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
